--- a/Excel/df_PDN_Rewards.xlsx
+++ b/Excel/df_PDN_Rewards.xlsx
@@ -486,7 +486,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.353337287902832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -607,7 +607,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.02890760637819767</v>
       </c>
     </row>
     <row r="17">
@@ -629,7 +629,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9042160511016846</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="19">
@@ -651,7 +651,7 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.005358457565308</v>
       </c>
     </row>
     <row r="21">
@@ -684,7 +684,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>-0</v>
+        <v>1.77058207988739</v>
       </c>
     </row>
     <row r="24">
@@ -717,7 +717,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>-1.125059604644775</v>
       </c>
     </row>
     <row r="27">
@@ -739,7 +739,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5400853753089905</v>
+        <v>-0.5400853753089905</v>
       </c>
     </row>
     <row r="29">
@@ -750,7 +750,7 @@
         <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.7326397299766541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -761,7 +761,7 @@
         <v>28</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>0.1688472628593445</v>
       </c>
     </row>
     <row r="31">
@@ -772,7 +772,7 @@
         <v>29</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6462646722793579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -794,7 +794,7 @@
         <v>31</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1843533366918564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -827,7 +827,7 @@
         <v>34</v>
       </c>
       <c r="C36" t="n">
-        <v>0.38155198097229</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="37">
@@ -838,7 +838,7 @@
         <v>35</v>
       </c>
       <c r="C37" t="n">
-        <v>1.051810264587402</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="38">
@@ -904,7 +904,7 @@
         <v>41</v>
       </c>
       <c r="C43" t="n">
-        <v>4.603922843933105</v>
+        <v>-4.603922843933105</v>
       </c>
     </row>
     <row r="44">
@@ -915,7 +915,7 @@
         <v>42</v>
       </c>
       <c r="C44" t="n">
-        <v>-2.810789585113525</v>
+        <v>2.810789585113525</v>
       </c>
     </row>
     <row r="45">
@@ -948,7 +948,7 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>1.705385208129883</v>
+        <v>-1.705385208129883</v>
       </c>
     </row>
     <row r="48">
@@ -981,7 +981,7 @@
         <v>48</v>
       </c>
       <c r="C50" t="n">
-        <v>4.886844158172607</v>
+        <v>-4.886844158172607</v>
       </c>
     </row>
     <row r="51">
@@ -992,7 +992,7 @@
         <v>49</v>
       </c>
       <c r="C51" t="n">
-        <v>9.511268615722656</v>
+        <v>-9.511268615722656</v>
       </c>
     </row>
     <row r="52">
@@ -1003,7 +1003,7 @@
         <v>50</v>
       </c>
       <c r="C52" t="n">
-        <v>-9.287124633789062</v>
+        <v>9.287124633789062</v>
       </c>
     </row>
     <row r="53">
@@ -1025,7 +1025,7 @@
         <v>52</v>
       </c>
       <c r="C54" t="n">
-        <v>-5.995484828948975</v>
+        <v>5.995484828948975</v>
       </c>
     </row>
     <row r="55">
@@ -1069,7 +1069,7 @@
         <v>56</v>
       </c>
       <c r="C58" t="n">
-        <v>-0</v>
+        <v>-2.929386854171753</v>
       </c>
     </row>
     <row r="59">
@@ -1091,7 +1091,7 @@
         <v>58</v>
       </c>
       <c r="C60" t="n">
-        <v>-1.153501152992249</v>
+        <v>1.153501152992249</v>
       </c>
     </row>
     <row r="61">
@@ -1113,7 +1113,7 @@
         <v>60</v>
       </c>
       <c r="C62" t="n">
-        <v>-3.368735313415527</v>
+        <v>3.368735313415527</v>
       </c>
     </row>
     <row r="63">
@@ -1157,7 +1157,7 @@
         <v>64</v>
       </c>
       <c r="C66" t="n">
-        <v>2.282934665679932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1179,7 +1179,7 @@
         <v>66</v>
       </c>
       <c r="C68" t="n">
-        <v>-7.033132076263428</v>
+        <v>7.033132076263428</v>
       </c>
     </row>
     <row r="69">
@@ -1223,7 +1223,7 @@
         <v>70</v>
       </c>
       <c r="C72" t="n">
-        <v>-0</v>
+        <v>1.0104660987854</v>
       </c>
     </row>
     <row r="73">
@@ -1234,7 +1234,7 @@
         <v>71</v>
       </c>
       <c r="C73" t="n">
-        <v>-3.05725884437561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -1256,7 +1256,7 @@
         <v>73</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>-0.5816689729690552</v>
       </c>
     </row>
     <row r="76">
@@ -1267,7 +1267,7 @@
         <v>74</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>2.679359436035156</v>
       </c>
     </row>
     <row r="77">
@@ -1300,7 +1300,7 @@
         <v>77</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>2.293024778366089</v>
       </c>
     </row>
     <row r="80">
@@ -1333,7 +1333,7 @@
         <v>80</v>
       </c>
       <c r="C82" t="n">
-        <v>-1.471406936645508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -1344,7 +1344,7 @@
         <v>81</v>
       </c>
       <c r="C83" t="n">
-        <v>0.5242380499839783</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="84">
@@ -1377,7 +1377,7 @@
         <v>84</v>
       </c>
       <c r="C86" t="n">
-        <v>-0</v>
+        <v>-2.805903434753418</v>
       </c>
     </row>
     <row r="87">
@@ -1410,7 +1410,7 @@
         <v>87</v>
       </c>
       <c r="C89" t="n">
-        <v>0.6979410648345947</v>
+        <v>-0.6979410648345947</v>
       </c>
     </row>
     <row r="90">
@@ -1421,7 +1421,7 @@
         <v>88</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>-1.150463104248047</v>
       </c>
     </row>
     <row r="91">
@@ -1432,7 +1432,7 @@
         <v>89</v>
       </c>
       <c r="C91" t="n">
-        <v>-1.687153816223145</v>
+        <v>1.687153816223145</v>
       </c>
     </row>
     <row r="92">
@@ -1476,7 +1476,7 @@
         <v>93</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>1.152482271194458</v>
       </c>
     </row>
     <row r="96">
@@ -1487,7 +1487,7 @@
         <v>94</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.3926363289356232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -1498,7 +1498,7 @@
         <v>95</v>
       </c>
       <c r="C97" t="n">
-        <v>-3.150119304656982</v>
+        <v>3.150119304656982</v>
       </c>
     </row>
     <row r="98">
@@ -1509,7 +1509,7 @@
         <v>96</v>
       </c>
       <c r="C98" t="n">
-        <v>1.048439979553223</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="99">
@@ -1520,7 +1520,7 @@
         <v>97</v>
       </c>
       <c r="C99" t="n">
-        <v>-1.665109992027283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -1531,7 +1531,7 @@
         <v>98</v>
       </c>
       <c r="C100" t="n">
-        <v>0.7773596048355103</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="101">
@@ -1553,7 +1553,7 @@
         <v>100</v>
       </c>
       <c r="C102" t="n">
-        <v>-1.228918433189392</v>
+        <v>1.228918433189392</v>
       </c>
     </row>
     <row r="103">
@@ -1575,7 +1575,7 @@
         <v>102</v>
       </c>
       <c r="C104" t="n">
-        <v>-0</v>
+        <v>-0.2107914537191391</v>
       </c>
     </row>
     <row r="105">
@@ -1597,7 +1597,7 @@
         <v>104</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>0.3751234710216522</v>
       </c>
     </row>
     <row r="107">
@@ -1619,7 +1619,7 @@
         <v>106</v>
       </c>
       <c r="C108" t="n">
-        <v>1.364897966384888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -1630,7 +1630,7 @@
         <v>107</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.3368702232837677</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="110">
@@ -1652,7 +1652,7 @@
         <v>109</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>1.204157948493958</v>
       </c>
     </row>
     <row r="112">
@@ -1663,7 +1663,7 @@
         <v>110</v>
       </c>
       <c r="C112" t="n">
-        <v>-0</v>
+        <v>-0.7799171209335327</v>
       </c>
     </row>
     <row r="113">
@@ -1674,7 +1674,7 @@
         <v>111</v>
       </c>
       <c r="C113" t="n">
-        <v>-0</v>
+        <v>-0.5313091278076172</v>
       </c>
     </row>
     <row r="114">
@@ -1718,7 +1718,7 @@
         <v>115</v>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>-1.896239757537842</v>
       </c>
     </row>
     <row r="118">
@@ -1773,7 +1773,7 @@
         <v>120</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>0.4307419657707214</v>
       </c>
     </row>
     <row r="123">
@@ -1795,7 +1795,7 @@
         <v>122</v>
       </c>
       <c r="C124" t="n">
-        <v>-1.095944762229919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -1806,7 +1806,7 @@
         <v>123</v>
       </c>
       <c r="C125" t="n">
-        <v>-2.422690629959106</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="126">
@@ -1850,7 +1850,7 @@
         <v>127</v>
       </c>
       <c r="C129" t="n">
-        <v>0.4541250765323639</v>
+        <v>-0.4541250765323639</v>
       </c>
     </row>
     <row r="130">
@@ -1905,7 +1905,7 @@
         <v>132</v>
       </c>
       <c r="C134" t="n">
-        <v>-1.04662013053894</v>
+        <v>1.04662013053894</v>
       </c>
     </row>
     <row r="135">
@@ -1927,7 +1927,7 @@
         <v>134</v>
       </c>
       <c r="C136" t="n">
-        <v>1.34063708782196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -1938,7 +1938,7 @@
         <v>135</v>
       </c>
       <c r="C137" t="n">
-        <v>0.9082050919532776</v>
+        <v>-0.9082050919532776</v>
       </c>
     </row>
     <row r="138">
@@ -1949,7 +1949,7 @@
         <v>136</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.3406101167201996</v>
+        <v>0.3406101167201996</v>
       </c>
     </row>
     <row r="139">
@@ -1960,7 +1960,7 @@
         <v>137</v>
       </c>
       <c r="C139" t="n">
-        <v>0.2848612070083618</v>
+        <v>-0.2848612070083618</v>
       </c>
     </row>
     <row r="140">
@@ -1971,7 +1971,7 @@
         <v>138</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>-0.8406938910484314</v>
       </c>
     </row>
     <row r="141">
@@ -1982,7 +1982,7 @@
         <v>139</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>0.1679037362337112</v>
       </c>
     </row>
     <row r="142">
@@ -1993,7 +1993,7 @@
         <v>140</v>
       </c>
       <c r="C142" t="n">
-        <v>-0.5747082233428955</v>
+        <v>0.5747082233428955</v>
       </c>
     </row>
     <row r="143">
@@ -2004,7 +2004,7 @@
         <v>141</v>
       </c>
       <c r="C143" t="n">
-        <v>-0</v>
+        <v>-1.231986045837402</v>
       </c>
     </row>
     <row r="144">
@@ -2048,7 +2048,7 @@
         <v>145</v>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>-1.242838144302368</v>
       </c>
     </row>
     <row r="148">
@@ -2059,7 +2059,7 @@
         <v>146</v>
       </c>
       <c r="C148" t="n">
-        <v>-0</v>
+        <v>-0.3750251829624176</v>
       </c>
     </row>
     <row r="149">
@@ -2103,7 +2103,7 @@
         <v>150</v>
       </c>
       <c r="C152" t="n">
-        <v>-0.642974317073822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -2125,7 +2125,7 @@
         <v>152</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>0.06330295652151108</v>
       </c>
     </row>
     <row r="155">
@@ -2136,7 +2136,7 @@
         <v>153</v>
       </c>
       <c r="C155" t="n">
-        <v>0.2742218375205994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -2158,7 +2158,7 @@
         <v>155</v>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>1.399654984474182</v>
       </c>
     </row>
     <row r="158">
@@ -2169,7 +2169,7 @@
         <v>156</v>
       </c>
       <c r="C158" t="n">
-        <v>-0.2047174423933029</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="159">
@@ -2180,7 +2180,7 @@
         <v>157</v>
       </c>
       <c r="C159" t="n">
-        <v>-0</v>
+        <v>0.01718826219439507</v>
       </c>
     </row>
     <row r="160">
@@ -2191,7 +2191,7 @@
         <v>158</v>
       </c>
       <c r="C160" t="n">
-        <v>0.2709842622280121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -2213,7 +2213,7 @@
         <v>160</v>
       </c>
       <c r="C162" t="n">
-        <v>-0</v>
+        <v>-0.4404395222663879</v>
       </c>
     </row>
     <row r="163">
@@ -2235,7 +2235,7 @@
         <v>162</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>0.3441106975078583</v>
       </c>
     </row>
     <row r="165">
@@ -2246,7 +2246,7 @@
         <v>163</v>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>-1.004371762275696</v>
       </c>
     </row>
     <row r="166">
@@ -2257,7 +2257,7 @@
         <v>164</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>0.3596351146697998</v>
       </c>
     </row>
     <row r="167">
@@ -2279,7 +2279,7 @@
         <v>166</v>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>0.1673044115304947</v>
       </c>
     </row>
     <row r="169">
@@ -2334,7 +2334,7 @@
         <v>171</v>
       </c>
       <c r="C173" t="n">
-        <v>-0</v>
+        <v>-3.512584447860718</v>
       </c>
     </row>
     <row r="174">
@@ -2378,7 +2378,7 @@
         <v>175</v>
       </c>
       <c r="C177" t="n">
-        <v>-0</v>
+        <v>-1.758479714393616</v>
       </c>
     </row>
     <row r="178">
@@ -2400,7 +2400,7 @@
         <v>177</v>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>1.274182915687561</v>
       </c>
     </row>
     <row r="180">
@@ -2411,7 +2411,7 @@
         <v>178</v>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>0.5219359397888184</v>
       </c>
     </row>
     <row r="181">
@@ -2422,7 +2422,7 @@
         <v>179</v>
       </c>
       <c r="C181" t="n">
-        <v>-0</v>
+        <v>0.4618946313858032</v>
       </c>
     </row>
     <row r="182">
@@ -2433,7 +2433,7 @@
         <v>180</v>
       </c>
       <c r="C182" t="n">
-        <v>-0</v>
+        <v>0.8412365913391113</v>
       </c>
     </row>
     <row r="183">
@@ -2444,7 +2444,7 @@
         <v>181</v>
       </c>
       <c r="C183" t="n">
-        <v>-0</v>
+        <v>1.118258237838745</v>
       </c>
     </row>
     <row r="184">
@@ -2455,7 +2455,7 @@
         <v>182</v>
       </c>
       <c r="C184" t="n">
-        <v>1.15710985660553</v>
+        <v>-1.15710985660553</v>
       </c>
     </row>
     <row r="185">
@@ -2510,7 +2510,7 @@
         <v>187</v>
       </c>
       <c r="C189" t="n">
-        <v>1.611058950424194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -2521,7 +2521,7 @@
         <v>188</v>
       </c>
       <c r="C190" t="n">
-        <v>-0.4812664389610291</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="191">
@@ -2532,7 +2532,7 @@
         <v>189</v>
       </c>
       <c r="C191" t="n">
-        <v>0.8253718018531799</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -2543,7 +2543,7 @@
         <v>190</v>
       </c>
       <c r="C192" t="n">
-        <v>-0.5292907953262329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -2554,7 +2554,7 @@
         <v>191</v>
       </c>
       <c r="C193" t="n">
-        <v>0.9577652215957642</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="194">
@@ -2587,7 +2587,7 @@
         <v>194</v>
       </c>
       <c r="C196" t="n">
-        <v>-1.739675521850586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -2609,7 +2609,7 @@
         <v>196</v>
       </c>
       <c r="C198" t="n">
-        <v>0</v>
+        <v>0.8793532848358154</v>
       </c>
     </row>
     <row r="199">
@@ -2719,7 +2719,7 @@
         <v>206</v>
       </c>
       <c r="C208" t="n">
-        <v>-0.3445761203765869</v>
+        <v>0.3445761203765869</v>
       </c>
     </row>
     <row r="209">
@@ -2730,7 +2730,7 @@
         <v>207</v>
       </c>
       <c r="C209" t="n">
-        <v>1.858951687812805</v>
+        <v>-1.858951687812805</v>
       </c>
     </row>
     <row r="210">
@@ -2752,7 +2752,7 @@
         <v>209</v>
       </c>
       <c r="C211" t="n">
-        <v>3.528787851333618</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="212">
@@ -2785,7 +2785,7 @@
         <v>212</v>
       </c>
       <c r="C214" t="n">
-        <v>-1.231820225715637</v>
+        <v>1.231820225715637</v>
       </c>
     </row>
     <row r="215">
@@ -2818,7 +2818,7 @@
         <v>215</v>
       </c>
       <c r="C217" t="n">
-        <v>-1.946019411087036</v>
+        <v>1.946019411087036</v>
       </c>
     </row>
     <row r="218">
@@ -2829,7 +2829,7 @@
         <v>216</v>
       </c>
       <c r="C218" t="n">
-        <v>0.02877151966094971</v>
+        <v>-0.02877151966094971</v>
       </c>
     </row>
     <row r="219">
@@ -2884,7 +2884,7 @@
         <v>221</v>
       </c>
       <c r="C223" t="n">
-        <v>-1.36103355884552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -2895,7 +2895,7 @@
         <v>222</v>
       </c>
       <c r="C224" t="n">
-        <v>-1.164805173873901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
@@ -2917,7 +2917,7 @@
         <v>224</v>
       </c>
       <c r="C226" t="n">
-        <v>-0</v>
+        <v>1.156382918357849</v>
       </c>
     </row>
     <row r="227">
@@ -2928,7 +2928,7 @@
         <v>225</v>
       </c>
       <c r="C227" t="n">
-        <v>0.3946442604064941</v>
+        <v>-0.3946442604064941</v>
       </c>
     </row>
     <row r="228">
@@ -2939,7 +2939,7 @@
         <v>226</v>
       </c>
       <c r="C228" t="n">
-        <v>-0</v>
+        <v>-0.6792563199996948</v>
       </c>
     </row>
     <row r="229">
@@ -2950,7 +2950,7 @@
         <v>227</v>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>-0.5635930895805359</v>
       </c>
     </row>
     <row r="230">
@@ -3016,7 +3016,7 @@
         <v>233</v>
       </c>
       <c r="C235" t="n">
-        <v>-0.1791166663169861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
@@ -3027,7 +3027,7 @@
         <v>234</v>
       </c>
       <c r="C236" t="n">
-        <v>0.0624157190322876</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="237">
@@ -3038,7 +3038,7 @@
         <v>235</v>
       </c>
       <c r="C237" t="n">
-        <v>0.8836274743080139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
@@ -3049,7 +3049,7 @@
         <v>236</v>
       </c>
       <c r="C238" t="n">
-        <v>0.193563774228096</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="239">
@@ -3159,7 +3159,7 @@
         <v>246</v>
       </c>
       <c r="C248" t="n">
-        <v>0.3906278908252716</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="249">
@@ -3170,7 +3170,7 @@
         <v>247</v>
       </c>
       <c r="C249" t="n">
-        <v>-0</v>
+        <v>0.207309290766716</v>
       </c>
     </row>
     <row r="250">
@@ -3192,7 +3192,7 @@
         <v>249</v>
       </c>
       <c r="C251" t="n">
-        <v>0</v>
+        <v>0.3536588847637177</v>
       </c>
     </row>
     <row r="252">
@@ -3203,7 +3203,7 @@
         <v>250</v>
       </c>
       <c r="C252" t="n">
-        <v>0</v>
+        <v>0.872252881526947</v>
       </c>
     </row>
     <row r="253">
@@ -3214,7 +3214,7 @@
         <v>251</v>
       </c>
       <c r="C253" t="n">
-        <v>0.2227380573749542</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="254">
@@ -3247,7 +3247,7 @@
         <v>254</v>
       </c>
       <c r="C256" t="n">
-        <v>-1.475482702255249</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="257">
@@ -3258,7 +3258,7 @@
         <v>255</v>
       </c>
       <c r="C257" t="n">
-        <v>-0.7082595229148865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
@@ -3269,7 +3269,7 @@
         <v>256</v>
       </c>
       <c r="C258" t="n">
-        <v>0.5709843039512634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
@@ -3280,7 +3280,7 @@
         <v>257</v>
       </c>
       <c r="C259" t="n">
-        <v>0</v>
+        <v>1.484740376472473</v>
       </c>
     </row>
     <row r="260">
@@ -3302,7 +3302,7 @@
         <v>259</v>
       </c>
       <c r="C261" t="n">
-        <v>-0</v>
+        <v>-0.6554750800132751</v>
       </c>
     </row>
     <row r="262">
@@ -3324,7 +3324,7 @@
         <v>261</v>
       </c>
       <c r="C263" t="n">
-        <v>0</v>
+        <v>-0.2275641709566116</v>
       </c>
     </row>
     <row r="264">
@@ -3335,7 +3335,7 @@
         <v>262</v>
       </c>
       <c r="C264" t="n">
-        <v>-0</v>
+        <v>0.3753451108932495</v>
       </c>
     </row>
     <row r="265">
@@ -3390,7 +3390,7 @@
         <v>267</v>
       </c>
       <c r="C269" t="n">
-        <v>0.3010611832141876</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="270">
@@ -3423,7 +3423,7 @@
         <v>270</v>
       </c>
       <c r="C272" t="n">
-        <v>2.567788362503052</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="273">
@@ -3434,7 +3434,7 @@
         <v>271</v>
       </c>
       <c r="C273" t="n">
-        <v>0</v>
+        <v>0.976062536239624</v>
       </c>
     </row>
     <row r="274">
@@ -3445,7 +3445,7 @@
         <v>272</v>
       </c>
       <c r="C274" t="n">
-        <v>1.931147456169128</v>
+        <v>-1.931147456169128</v>
       </c>
     </row>
     <row r="275">
@@ -3456,7 +3456,7 @@
         <v>273</v>
       </c>
       <c r="C275" t="n">
-        <v>-1.605176687240601</v>
+        <v>1.605176687240601</v>
       </c>
     </row>
     <row r="276">
@@ -3500,7 +3500,7 @@
         <v>277</v>
       </c>
       <c r="C279" t="n">
-        <v>-0.3897494971752167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
@@ -3577,7 +3577,7 @@
         <v>284</v>
       </c>
       <c r="C286" t="n">
-        <v>-0.03204020112752914</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="287">
@@ -3588,7 +3588,7 @@
         <v>285</v>
       </c>
       <c r="C287" t="n">
-        <v>-0.4415835738182068</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="288">
@@ -3643,7 +3643,7 @@
         <v>290</v>
       </c>
       <c r="C292" t="n">
-        <v>2.447880744934082</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="293">
@@ -3654,7 +3654,7 @@
         <v>291</v>
       </c>
       <c r="C293" t="n">
-        <v>-0</v>
+        <v>-0.4750213921070099</v>
       </c>
     </row>
     <row r="294">
@@ -3665,7 +3665,7 @@
         <v>292</v>
       </c>
       <c r="C294" t="n">
-        <v>0</v>
+        <v>2.379076480865479</v>
       </c>
     </row>
     <row r="295">
@@ -3676,7 +3676,7 @@
         <v>293</v>
       </c>
       <c r="C295" t="n">
-        <v>-0</v>
+        <v>-0.8080851435661316</v>
       </c>
     </row>
     <row r="296">
@@ -3687,7 +3687,7 @@
         <v>294</v>
       </c>
       <c r="C296" t="n">
-        <v>-0</v>
+        <v>-1.30662214756012</v>
       </c>
     </row>
     <row r="297">
@@ -3753,7 +3753,7 @@
         <v>300</v>
       </c>
       <c r="C302" t="n">
-        <v>-1.039548635482788</v>
+        <v>1.039548635482788</v>
       </c>
     </row>
     <row r="303">
@@ -3775,7 +3775,7 @@
         <v>302</v>
       </c>
       <c r="C304" t="n">
-        <v>0.6491921544075012</v>
+        <v>-0.6491921544075012</v>
       </c>
     </row>
     <row r="305">
@@ -3786,7 +3786,7 @@
         <v>303</v>
       </c>
       <c r="C305" t="n">
-        <v>-0.1569683849811554</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="306">
@@ -3808,7 +3808,7 @@
         <v>305</v>
       </c>
       <c r="C307" t="n">
-        <v>-1.476053953170776</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="308">
@@ -3819,7 +3819,7 @@
         <v>306</v>
       </c>
       <c r="C308" t="n">
-        <v>-0.06027039512991905</v>
+        <v>0.06027039512991905</v>
       </c>
     </row>
     <row r="309">
@@ -3841,7 +3841,7 @@
         <v>308</v>
       </c>
       <c r="C310" t="n">
-        <v>0.7630854249000549</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="311">
@@ -3852,7 +3852,7 @@
         <v>309</v>
       </c>
       <c r="C311" t="n">
-        <v>0.5467336177825928</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="312">
@@ -3863,7 +3863,7 @@
         <v>310</v>
       </c>
       <c r="C312" t="n">
-        <v>0</v>
+        <v>-0.5240265727043152</v>
       </c>
     </row>
     <row r="313">
@@ -3885,7 +3885,7 @@
         <v>312</v>
       </c>
       <c r="C314" t="n">
-        <v>-0</v>
+        <v>-0.08680126816034317</v>
       </c>
     </row>
     <row r="315">
@@ -3896,7 +3896,7 @@
         <v>313</v>
       </c>
       <c r="C315" t="n">
-        <v>-0</v>
+        <v>-0.31578329205513</v>
       </c>
     </row>
     <row r="316">
@@ -3907,7 +3907,7 @@
         <v>314</v>
       </c>
       <c r="C316" t="n">
-        <v>0</v>
+        <v>0.3622499108314514</v>
       </c>
     </row>
     <row r="317">
@@ -3929,7 +3929,7 @@
         <v>316</v>
       </c>
       <c r="C318" t="n">
-        <v>-1.443822622299194</v>
+        <v>1.443822622299194</v>
       </c>
     </row>
     <row r="319">
@@ -3940,7 +3940,7 @@
         <v>317</v>
       </c>
       <c r="C319" t="n">
-        <v>-0</v>
+        <v>0.09735307842493057</v>
       </c>
     </row>
     <row r="320">
@@ -3951,7 +3951,7 @@
         <v>318</v>
       </c>
       <c r="C320" t="n">
-        <v>0.1475232839584351</v>
+        <v>-0.1475232839584351</v>
       </c>
     </row>
     <row r="321">
@@ -3984,7 +3984,7 @@
         <v>321</v>
       </c>
       <c r="C323" t="n">
-        <v>0.01960788480937481</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="324">
@@ -3995,7 +3995,7 @@
         <v>322</v>
       </c>
       <c r="C324" t="n">
-        <v>-0.3294486701488495</v>
+        <v>0.3294486701488495</v>
       </c>
     </row>
     <row r="325">
@@ -4039,7 +4039,7 @@
         <v>326</v>
       </c>
       <c r="C328" t="n">
-        <v>-0</v>
+        <v>0.5306559801101685</v>
       </c>
     </row>
     <row r="329">
@@ -4050,7 +4050,7 @@
         <v>327</v>
       </c>
       <c r="C329" t="n">
-        <v>-0</v>
+        <v>0.6802319288253784</v>
       </c>
     </row>
     <row r="330">
@@ -4061,7 +4061,7 @@
         <v>328</v>
       </c>
       <c r="C330" t="n">
-        <v>0</v>
+        <v>-0.9306055307388306</v>
       </c>
     </row>
     <row r="331">
@@ -4072,7 +4072,7 @@
         <v>329</v>
       </c>
       <c r="C331" t="n">
-        <v>-0</v>
+        <v>0.9210657477378845</v>
       </c>
     </row>
     <row r="332">
@@ -4105,7 +4105,7 @@
         <v>332</v>
       </c>
       <c r="C334" t="n">
-        <v>-0</v>
+        <v>-0.0214895885437727</v>
       </c>
     </row>
     <row r="335">
@@ -4116,7 +4116,7 @@
         <v>333</v>
       </c>
       <c r="C335" t="n">
-        <v>-0</v>
+        <v>-0.08455399423837662</v>
       </c>
     </row>
     <row r="336">
@@ -4215,7 +4215,7 @@
         <v>342</v>
       </c>
       <c r="C344" t="n">
-        <v>0.8673912882804871</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="345">
@@ -4226,7 +4226,7 @@
         <v>343</v>
       </c>
       <c r="C345" t="n">
-        <v>2.14493989944458</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="346">
@@ -4237,7 +4237,7 @@
         <v>344</v>
       </c>
       <c r="C346" t="n">
-        <v>0</v>
+        <v>1.217314124107361</v>
       </c>
     </row>
     <row r="347">
@@ -4248,7 +4248,7 @@
         <v>345</v>
       </c>
       <c r="C347" t="n">
-        <v>0</v>
+        <v>1.491795659065247</v>
       </c>
     </row>
     <row r="348">
@@ -4259,7 +4259,7 @@
         <v>346</v>
       </c>
       <c r="C348" t="n">
-        <v>-0</v>
+        <v>-0.2530052065849304</v>
       </c>
     </row>
     <row r="349">
@@ -4270,7 +4270,7 @@
         <v>347</v>
       </c>
       <c r="C349" t="n">
-        <v>0.8517293334007263</v>
+        <v>-0.8517293334007263</v>
       </c>
     </row>
     <row r="350">
@@ -4281,7 +4281,7 @@
         <v>348</v>
       </c>
       <c r="C350" t="n">
-        <v>0.2943411469459534</v>
+        <v>-0.2943411469459534</v>
       </c>
     </row>
     <row r="351">
@@ -4292,7 +4292,7 @@
         <v>349</v>
       </c>
       <c r="C351" t="n">
-        <v>-1.055474162101746</v>
+        <v>1.055474162101746</v>
       </c>
     </row>
     <row r="352">
@@ -4303,7 +4303,7 @@
         <v>350</v>
       </c>
       <c r="C352" t="n">
-        <v>-0</v>
+        <v>-0.07838807255029678</v>
       </c>
     </row>
     <row r="353">
@@ -4314,7 +4314,7 @@
         <v>351</v>
       </c>
       <c r="C353" t="n">
-        <v>0</v>
+        <v>0.9911292195320129</v>
       </c>
     </row>
     <row r="354">
@@ -4347,7 +4347,7 @@
         <v>354</v>
       </c>
       <c r="C356" t="n">
-        <v>0.1165314614772797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357">
@@ -4358,7 +4358,7 @@
         <v>355</v>
       </c>
       <c r="C357" t="n">
-        <v>-0.07688818871974945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358">
@@ -4369,7 +4369,7 @@
         <v>356</v>
       </c>
       <c r="C358" t="n">
-        <v>0.04923335462808609</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="359">
@@ -4479,7 +4479,7 @@
         <v>366</v>
       </c>
       <c r="C368" t="n">
-        <v>-0</v>
+        <v>0.2011693716049194</v>
       </c>
     </row>
     <row r="369">
@@ -4490,7 +4490,7 @@
         <v>367</v>
       </c>
       <c r="C369" t="n">
-        <v>-0</v>
+        <v>0.5390124320983887</v>
       </c>
     </row>
     <row r="370">
@@ -4501,7 +4501,7 @@
         <v>368</v>
       </c>
       <c r="C370" t="n">
-        <v>0.04357156157493591</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="371">
@@ -4512,7 +4512,7 @@
         <v>369</v>
       </c>
       <c r="C371" t="n">
-        <v>1.31244683265686</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="372">
@@ -4523,7 +4523,7 @@
         <v>370</v>
       </c>
       <c r="C372" t="n">
-        <v>-1.400228977203369</v>
+        <v>1.400228977203369</v>
       </c>
     </row>
     <row r="373">
@@ -4534,7 +4534,7 @@
         <v>371</v>
       </c>
       <c r="C373" t="n">
-        <v>-0.5124492049217224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374">
@@ -4545,7 +4545,7 @@
         <v>372</v>
       </c>
       <c r="C374" t="n">
-        <v>0.1083283349871635</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="375">
@@ -4611,7 +4611,7 @@
         <v>378</v>
       </c>
       <c r="C380" t="n">
-        <v>0</v>
+        <v>0.5221626758575439</v>
       </c>
     </row>
     <row r="381">
@@ -4622,7 +4622,7 @@
         <v>379</v>
       </c>
       <c r="C381" t="n">
-        <v>0</v>
+        <v>0.7500081658363342</v>
       </c>
     </row>
     <row r="382">
@@ -4688,7 +4688,7 @@
         <v>385</v>
       </c>
       <c r="C387" t="n">
-        <v>-0</v>
+        <v>-0.351681262254715</v>
       </c>
     </row>
     <row r="388">
@@ -4754,7 +4754,7 @@
         <v>391</v>
       </c>
       <c r="C393" t="n">
-        <v>0</v>
+        <v>-0.8241820335388184</v>
       </c>
     </row>
     <row r="394">
@@ -4787,7 +4787,7 @@
         <v>394</v>
       </c>
       <c r="C396" t="n">
-        <v>-0.2382199913263321</v>
+        <v>0.2382199913263321</v>
       </c>
     </row>
     <row r="397">
@@ -4798,7 +4798,7 @@
         <v>395</v>
       </c>
       <c r="C397" t="n">
-        <v>0.4712444841861725</v>
+        <v>-0.4712444841861725</v>
       </c>
     </row>
     <row r="398">
@@ -4809,7 +4809,7 @@
         <v>396</v>
       </c>
       <c r="C398" t="n">
-        <v>-0</v>
+        <v>-0.01862618885934353</v>
       </c>
     </row>
     <row r="399">
@@ -4820,7 +4820,7 @@
         <v>397</v>
       </c>
       <c r="C399" t="n">
-        <v>-0.4206153154373169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400">
@@ -4831,7 +4831,7 @@
         <v>398</v>
       </c>
       <c r="C400" t="n">
-        <v>0.540604829788208</v>
+        <v>-0.540604829788208</v>
       </c>
     </row>
     <row r="401">
@@ -4842,7 +4842,7 @@
         <v>399</v>
       </c>
       <c r="C401" t="n">
-        <v>-0</v>
+        <v>-0.1842805594205856</v>
       </c>
     </row>
     <row r="402">
@@ -4886,7 +4886,7 @@
         <v>403</v>
       </c>
       <c r="C405" t="n">
-        <v>0.1675266176462173</v>
+        <v>-0.1675266176462173</v>
       </c>
     </row>
     <row r="406">
@@ -4897,7 +4897,7 @@
         <v>404</v>
       </c>
       <c r="C406" t="n">
-        <v>-0</v>
+        <v>0.09399082511663437</v>
       </c>
     </row>
     <row r="407">
@@ -4908,7 +4908,7 @@
         <v>405</v>
       </c>
       <c r="C407" t="n">
-        <v>0</v>
+        <v>-0.09926793724298477</v>
       </c>
     </row>
     <row r="408">
@@ -4952,7 +4952,7 @@
         <v>409</v>
       </c>
       <c r="C411" t="n">
-        <v>0</v>
+        <v>0.2620850801467896</v>
       </c>
     </row>
     <row r="412">
@@ -4963,7 +4963,7 @@
         <v>410</v>
       </c>
       <c r="C412" t="n">
-        <v>-0</v>
+        <v>-0.7060698866844177</v>
       </c>
     </row>
     <row r="413">
@@ -4974,7 +4974,7 @@
         <v>411</v>
       </c>
       <c r="C413" t="n">
-        <v>-0</v>
+        <v>-1.074847102165222</v>
       </c>
     </row>
     <row r="414">
@@ -4996,7 +4996,7 @@
         <v>413</v>
       </c>
       <c r="C415" t="n">
-        <v>0</v>
+        <v>0.8141567707061768</v>
       </c>
     </row>
     <row r="416">
@@ -5029,7 +5029,7 @@
         <v>416</v>
       </c>
       <c r="C418" t="n">
-        <v>-0.2220118194818497</v>
+        <v>0.2220118194818497</v>
       </c>
     </row>
     <row r="419">
@@ -5062,7 +5062,7 @@
         <v>419</v>
       </c>
       <c r="C421" t="n">
-        <v>0</v>
+        <v>0.4306570589542389</v>
       </c>
     </row>
     <row r="422">
@@ -5073,7 +5073,7 @@
         <v>420</v>
       </c>
       <c r="C422" t="n">
-        <v>-0.1349116116762161</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="423">
@@ -5106,7 +5106,7 @@
         <v>423</v>
       </c>
       <c r="C425" t="n">
-        <v>-0</v>
+        <v>-0.03350311145186424</v>
       </c>
     </row>
     <row r="426">
@@ -5128,7 +5128,7 @@
         <v>425</v>
       </c>
       <c r="C427" t="n">
-        <v>-0.1318566799163818</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="428">
@@ -5139,7 +5139,7 @@
         <v>426</v>
       </c>
       <c r="C428" t="n">
-        <v>0.4605608582496643</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="429">
@@ -5161,7 +5161,7 @@
         <v>428</v>
       </c>
       <c r="C430" t="n">
-        <v>-0.2276487648487091</v>
+        <v>0.2276487648487091</v>
       </c>
     </row>
     <row r="431">
@@ -5172,7 +5172,7 @@
         <v>429</v>
       </c>
       <c r="C431" t="n">
-        <v>-0</v>
+        <v>-0.5746638178825378</v>
       </c>
     </row>
     <row r="432">
@@ -5183,7 +5183,7 @@
         <v>430</v>
       </c>
       <c r="C432" t="n">
-        <v>-0.8473997116088867</v>
+        <v>0.8473997116088867</v>
       </c>
     </row>
     <row r="433">
@@ -5216,7 +5216,7 @@
         <v>433</v>
       </c>
       <c r="C435" t="n">
-        <v>1.697731018066406</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="436">
@@ -5227,7 +5227,7 @@
         <v>434</v>
       </c>
       <c r="C436" t="n">
-        <v>0.0812358483672142</v>
+        <v>-0.0812358483672142</v>
       </c>
     </row>
     <row r="437">
@@ -5238,7 +5238,7 @@
         <v>435</v>
       </c>
       <c r="C437" t="n">
-        <v>0</v>
+        <v>0.9519611597061157</v>
       </c>
     </row>
     <row r="438">
@@ -5249,7 +5249,7 @@
         <v>436</v>
       </c>
       <c r="C438" t="n">
-        <v>1.213471651077271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439">
@@ -5271,7 +5271,7 @@
         <v>438</v>
       </c>
       <c r="C440" t="n">
-        <v>0.2776382863521576</v>
+        <v>-0.2776382863521576</v>
       </c>
     </row>
     <row r="441">
@@ -5326,7 +5326,7 @@
         <v>443</v>
       </c>
       <c r="C445" t="n">
-        <v>-1.298589825630188</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="446">
@@ -5337,7 +5337,7 @@
         <v>444</v>
       </c>
       <c r="C446" t="n">
-        <v>1.052451491355896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447">
@@ -5403,7 +5403,7 @@
         <v>450</v>
       </c>
       <c r="C452" t="n">
-        <v>-0.3022514581680298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453">
@@ -5414,7 +5414,7 @@
         <v>451</v>
       </c>
       <c r="C453" t="n">
-        <v>-1.706310153007507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454">
@@ -5458,7 +5458,7 @@
         <v>455</v>
       </c>
       <c r="C457" t="n">
-        <v>0</v>
+        <v>-0.3664029836654663</v>
       </c>
     </row>
     <row r="458">
@@ -5480,7 +5480,7 @@
         <v>457</v>
       </c>
       <c r="C459" t="n">
-        <v>-0</v>
+        <v>0.1072553694248199</v>
       </c>
     </row>
     <row r="460">
@@ -5491,7 +5491,7 @@
         <v>458</v>
       </c>
       <c r="C460" t="n">
-        <v>0</v>
+        <v>0.4748196303844452</v>
       </c>
     </row>
     <row r="461">
@@ -5535,7 +5535,7 @@
         <v>462</v>
       </c>
       <c r="C464" t="n">
-        <v>0</v>
+        <v>-0.1949334740638733</v>
       </c>
     </row>
     <row r="465">
@@ -5568,7 +5568,7 @@
         <v>465</v>
       </c>
       <c r="C467" t="n">
-        <v>0</v>
+        <v>0.6461278796195984</v>
       </c>
     </row>
     <row r="468">
@@ -5579,7 +5579,7 @@
         <v>466</v>
       </c>
       <c r="C468" t="n">
-        <v>0</v>
+        <v>0.4181942343711853</v>
       </c>
     </row>
     <row r="469">
@@ -5601,7 +5601,7 @@
         <v>468</v>
       </c>
       <c r="C470" t="n">
-        <v>0</v>
+        <v>0.0887787938117981</v>
       </c>
     </row>
     <row r="471">
@@ -5623,7 +5623,7 @@
         <v>470</v>
       </c>
       <c r="C472" t="n">
-        <v>-0</v>
+        <v>-0.8225823640823364</v>
       </c>
     </row>
     <row r="473">
@@ -5634,7 +5634,7 @@
         <v>471</v>
       </c>
       <c r="C473" t="n">
-        <v>0</v>
+        <v>0.05509400367736816</v>
       </c>
     </row>
     <row r="474">
@@ -5645,7 +5645,7 @@
         <v>472</v>
       </c>
       <c r="C474" t="n">
-        <v>0</v>
+        <v>0.7222656011581421</v>
       </c>
     </row>
     <row r="475">
@@ -5656,7 +5656,7 @@
         <v>473</v>
       </c>
       <c r="C475" t="n">
-        <v>-0</v>
+        <v>-0.001073981984518468</v>
       </c>
     </row>
     <row r="476">
@@ -5667,7 +5667,7 @@
         <v>474</v>
       </c>
       <c r="C476" t="n">
-        <v>0</v>
+        <v>0.3865229785442352</v>
       </c>
     </row>
     <row r="477">
@@ -5733,7 +5733,7 @@
         <v>480</v>
       </c>
       <c r="C482" t="n">
-        <v>-0.2293850481510162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483">
@@ -5744,7 +5744,7 @@
         <v>481</v>
       </c>
       <c r="C483" t="n">
-        <v>2.27248215675354</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="484">
@@ -5755,7 +5755,7 @@
         <v>482</v>
       </c>
       <c r="C484" t="n">
-        <v>0</v>
+        <v>1.320019960403442</v>
       </c>
     </row>
     <row r="485">
@@ -5766,7 +5766,7 @@
         <v>483</v>
       </c>
       <c r="C485" t="n">
-        <v>1.896131038665771</v>
+        <v>-1.896131038665771</v>
       </c>
     </row>
     <row r="486">
@@ -5810,7 +5810,7 @@
         <v>487</v>
       </c>
       <c r="C489" t="n">
-        <v>-1.173087358474731</v>
+        <v>1.173087358474731</v>
       </c>
     </row>
     <row r="490">
@@ -5821,7 +5821,7 @@
         <v>488</v>
       </c>
       <c r="C490" t="n">
-        <v>-2.070708036422729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491">
@@ -5832,7 +5832,7 @@
         <v>489</v>
       </c>
       <c r="C491" t="n">
-        <v>0.3085285425186157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492">
@@ -5865,7 +5865,7 @@
         <v>492</v>
       </c>
       <c r="C494" t="n">
-        <v>0.9136167168617249</v>
+        <v>-0.9136167168617249</v>
       </c>
     </row>
     <row r="495">
@@ -5887,7 +5887,7 @@
         <v>494</v>
       </c>
       <c r="C496" t="n">
-        <v>-1.634846448898315</v>
+        <v>1.634846448898315</v>
       </c>
     </row>
     <row r="497">
@@ -5931,7 +5931,7 @@
         <v>498</v>
       </c>
       <c r="C500" t="n">
-        <v>1.777793407440186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501">
@@ -5942,7 +5942,7 @@
         <v>499</v>
       </c>
       <c r="C501" t="n">
-        <v>1.018019795417786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502">
@@ -5953,7 +5953,7 @@
         <v>500</v>
       </c>
       <c r="C502" t="n">
-        <v>0.6223700046539307</v>
+        <v>-0.6223700046539307</v>
       </c>
     </row>
     <row r="503">
@@ -5964,7 +5964,7 @@
         <v>501</v>
       </c>
       <c r="C503" t="n">
-        <v>-1.383893609046936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504">
@@ -5975,7 +5975,7 @@
         <v>502</v>
       </c>
       <c r="C504" t="n">
-        <v>-0</v>
+        <v>0.1010154858231544</v>
       </c>
     </row>
     <row r="505">
@@ -5986,7 +5986,7 @@
         <v>503</v>
       </c>
       <c r="C505" t="n">
-        <v>0</v>
+        <v>-0.1401895135641098</v>
       </c>
     </row>
     <row r="506">
@@ -5997,7 +5997,7 @@
         <v>504</v>
       </c>
       <c r="C506" t="n">
-        <v>-0</v>
+        <v>0.2989755570888519</v>
       </c>
     </row>
     <row r="507">
@@ -6008,7 +6008,7 @@
         <v>505</v>
       </c>
       <c r="C507" t="n">
-        <v>-0.2626180052757263</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>
